--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:52+00:00</t>
+    <t>2023-07-28T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:47:29+00:00</t>
+    <t>2023-07-28T15:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:48:20+00:00</t>
+    <t>2023-07-28T15:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:18+00:00</t>
+    <t>2023-07-28T15:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:48+00:00</t>
+    <t>2023-08-03T06:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T06:47:21+00:00</t>
+    <t>2023-08-03T06:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T06:58:34+00:00</t>
+    <t>2023-08-05T15:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T15:47:22+00:00</t>
+    <t>2023-08-05T16:48:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T16:48:40+00:00</t>
+    <t>2023-08-05T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:00:40+00:00</t>
+    <t>2023-08-05T17:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:09:05+00:00</t>
+    <t>2023-08-06T13:17:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T13:17:58+00:00</t>
+    <t>2023-08-23T14:17:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T14:17:04+00:00</t>
+    <t>2023-08-30T13:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T13:32:08+00:00</t>
+    <t>2023-09-01T08:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,6 +87,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
   </si>
   <si>
     <t>Phase III and phase IV (Integrated)</t>
+  </si>
+  <si>
+    <t>Trials that are a combination of phases III and IV.</t>
   </si>
 </sst>
 </file>
@@ -375,52 +381,54 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -438,29 +446,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:48:57+00:00</t>
+    <t>2023-09-01T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:26:19+00:00</t>
+    <t>2023-09-01T14:41:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:41:02+00:00</t>
+    <t>2023-09-04T08:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:22:22+00:00</t>
+    <t>2023-09-04T12:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T12:29:28+00:00</t>
+    <t>2023-09-15T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:08:50+00:00</t>
+    <t>2023-09-15T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,10 +132,10 @@
     <t>phase-3-phase-4</t>
   </si>
   <si>
-    <t>Phase III and phase IV (Integrated)</t>
-  </si>
-  <si>
-    <t>Trials that are a combination of phases III and IV.</t>
+    <t>Phase 3 and phase 4</t>
+  </si>
+  <si>
+    <t>Trials that are a combination of phases 3 and 4.</t>
   </si>
 </sst>
 </file>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:15:22+00:00</t>
+    <t>2023-09-20T09:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:41:37+00:00</t>
+    <t>2023-09-20T10:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T10:01:10+00:00</t>
+    <t>2023-09-22T15:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T15:13:42+00:00</t>
+    <t>2023-10-04T13:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T13:47:44+00:00</t>
+    <t>2023-10-05T16:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:23:11+00:00</t>
+    <t>2023-10-09T13:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T13:24:44+00:00</t>
+    <t>2023-10-14T10:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:16:45+00:00</t>
+    <t>2023-10-14T10:31:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:31:55+00:00</t>
+    <t>2023-10-17T10:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:04:53+00:00</t>
+    <t>2023-10-19T15:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T15:25:12+00:00</t>
+    <t>2023-10-19T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T16:10:03+00:00</t>
+    <t>2023-10-20T07:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T07:19:33+00:00</t>
+    <t>2023-10-20T08:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>iso:code:3166:FR</t>
   </si>
   <si>
     <t>Description</t>
@@ -269,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,66 +375,74 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -446,30 +460,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T08:59:58+00:00</t>
+    <t>2023-10-20T10:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:14:02+00:00</t>
+    <t>2023-10-20T10:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>iso:code:3166:FR</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:34:54+00:00</t>
+    <t>2023-10-20T10:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:58:43+00:00</t>
+    <t>2023-10-20T11:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:42:03+00:00</t>
+    <t>2023-10-20T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:56:25+00:00</t>
+    <t>2023-10-23T16:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T16:47:01+00:00</t>
+    <t>2023-10-23T17:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T17:13:00+00:00</t>
+    <t>2023-10-24T08:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:06:31+00:00</t>
+    <t>2023-10-24T08:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:15:22+00:00</t>
+    <t>2023-10-26T14:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T14:31:05+00:00</t>
+    <t>2023-11-02T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:47:44+00:00</t>
+    <t>2023-11-06T08:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-06T08:01:54+00:00</t>
+    <t>2023-11-13T14:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:27:10+00:00</t>
+    <t>2023-12-23T14:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-23T14:24:05+00:00</t>
+    <t>2024-01-11T09:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T09:08:43+00:00</t>
+    <t>2024-01-11T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T11:17:12+00:00</t>
+    <t>2024-01-15T10:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:25:07+00:00</t>
+    <t>2024-01-15T15:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:13:31+00:00</t>
+    <t>2024-01-15T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:15:33+00:00</t>
+    <t>2024-01-22T13:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:46:22+00:00</t>
+    <t>2024-01-24T10:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T10:06:27+00:00</t>
+    <t>2024-01-24T12:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T12:52:29+00:00</t>
+    <t>2024-01-24T17:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T17:10:03+00:00</t>
+    <t>2024-02-12T09:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:57:27+00:00</t>
+    <t>2024-02-15T13:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T13:54:33+00:00</t>
+    <t>2024-02-15T16:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:42:49+00:00</t>
+    <t>2024-02-15T16:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:43:54+00:00</t>
+    <t>2024-02-15T17:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:28:18+00:00</t>
+    <t>2024-02-16T08:51:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T08:51:01+00:00</t>
+    <t>2024-02-16T15:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/main/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
